--- a/RencitaDay3/Output/Assignment_4/Assignment_4.xlsx
+++ b/RencitaDay3/Output/Assignment_4/Assignment_4.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_Day_3\RencitaDay3\Output\Assignment_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dc8928f65293786/Documents/UiPath/Rencita_Day_3/Rencita_Day_3/RencitaDay3/Output/Assignment_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8015494A-F548-4AEA-9216-9015D2B8EFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8015494A-F548-4AEA-9216-9015D2B8EFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E43C569-7AEF-47D6-887E-6C00B906352C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6B796EA7-B94A-4774-AE2D-BA9F0FAC6018}"/>
+    <workbookView xWindow="6132" yWindow="1944" windowWidth="14304" windowHeight="8880" xr2:uid="{6B796EA7-B94A-4774-AE2D-BA9F0FAC6018}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -597,9 +595,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,12 +611,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -632,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -646,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -660,7 +658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -674,7 +672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -688,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -702,7 +700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -716,12 +714,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -735,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -749,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -763,12 +761,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -782,7 +780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -796,7 +794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -810,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -824,7 +822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -838,7 +836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -852,7 +850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -866,7 +864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -880,7 +878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -894,12 +892,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -913,12 +911,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -932,7 +930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -946,7 +944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -960,12 +958,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -979,7 +977,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -993,7 +991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1035,12 +1033,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1068,12 +1066,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1087,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1115,7 +1113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1143,7 +1141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1171,7 +1169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
